--- a/src/test/resources/Data/YSLTestData.xlsx
+++ b/src/test/resources/Data/YSLTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C700B8-1B4A-4623-80C6-B0B5738BED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A45276-B329-4CC4-9B67-5211FE3A321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>segment</t>
   </si>
@@ -71,30 +71,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -116,6 +92,12 @@
     <t>new_password</t>
   </si>
   <si>
+    <t>Y30BA</t>
+  </si>
+  <si>
+    <t>Y30ba#20223</t>
+  </si>
+  <si>
     <t>IBTQQQQ</t>
   </si>
   <si>
@@ -149,6 +131,9 @@
     <t>iM2OZ*ScBY</t>
   </si>
   <si>
+    <t>P51000179</t>
+  </si>
+  <si>
     <t>PKK000000</t>
   </si>
   <si>
@@ -359,56 +344,56 @@
     <t>FE245</t>
   </si>
   <si>
-    <t>FE246</t>
-  </si>
-  <si>
     <t>FE247</t>
   </si>
   <si>
+    <t>51ZZ6123525</t>
+  </si>
+  <si>
     <t>FE248</t>
   </si>
   <si>
-    <t>FE249</t>
-  </si>
-  <si>
-    <t>FE250</t>
-  </si>
-  <si>
-    <t>FE251</t>
-  </si>
-  <si>
     <t>product1</t>
   </si>
   <si>
     <t>product2</t>
   </si>
   <si>
-    <t>ULTRA FACIAL CREAM</t>
-  </si>
-  <si>
-    <t>DERM PSLRC R18 50ML</t>
-  </si>
-  <si>
-    <t>Buttermask for Lips</t>
-  </si>
-  <si>
-    <t>Ultra Facial Cream</t>
+    <t>LIBRE EAU DE TOILETTE</t>
+  </si>
+  <si>
+    <t>MON PARIS EDP</t>
+  </si>
+  <si>
+    <t>SHOT LIGHT UP RECH F30ML</t>
+  </si>
+  <si>
+    <t>ALL HOURS POWDER SPONGE X2</t>
+  </si>
+  <si>
+    <t>Y EAU DE TOILETTE</t>
+  </si>
+  <si>
+    <t>Y LE PARFUM</t>
+  </si>
+  <si>
+    <t>LVDP CABAN V75ML</t>
+  </si>
+  <si>
+    <t>BLACK OPIUM EDP INTENSE 90ML</t>
   </si>
   <si>
     <t>Y MEN EDT V60ML</t>
   </si>
   <si>
-    <t>PSLRC 50ML</t>
-  </si>
-  <si>
-    <t>CC DARK SPOT 30ML</t>
+    <t>LIBRE EDP S30ML FG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,28 +480,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -532,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,9 +540,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -886,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,7 +870,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -906,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -914,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -922,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -930,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -938,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -946,41 +918,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+    <row r="13" spans="1:9">
+      <c r="I13" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61347E-61AD-4932-9AA9-319667F233ED}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,38 +948,42 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -1048,19 +992,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1069,19 +1013,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1090,19 +1034,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1111,80 +1055,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCACCAE3-DBC4-457A-B8DF-93037B09B635}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,39 +1095,42 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1250,19 +1138,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1270,127 +1158,59 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>43</v>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>45</v>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1414,10 +1234,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1576,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1615,115 +1435,115 @@
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -1731,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1752,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1767,43 +1587,43 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R2">
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U2">
         <v>4000</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB2">
         <v>8280004</v>
@@ -1815,22 +1635,22 @@
         <v>852</v>
       </c>
       <c r="AE2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1838,13 +1658,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1859,10 +1679,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1874,46 +1694,46 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3">
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U3">
         <v>123456</v>
       </c>
       <c r="V3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y3">
         <v>720123</v>
       </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB3">
         <v>8280004</v>
@@ -1925,25 +1745,25 @@
         <v>852</v>
       </c>
       <c r="AE3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AF3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK3" t="s">
         <v>101</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -1951,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -1972,10 +1792,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -1987,43 +1807,43 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U4">
         <v>123456</v>
       </c>
       <c r="V4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB4">
         <v>8280004</v>
@@ -2035,42 +1855,42 @@
         <v>852</v>
       </c>
       <c r="AE4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>104</v>
+      <c r="AJ4" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>9876543212</v>
+        <v>60838324</v>
       </c>
       <c r="F5">
-        <v>18465</v>
+        <v>98765</v>
       </c>
       <c r="G5">
         <v>4455667788</v>
@@ -2079,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -2094,46 +1914,43 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U5">
         <v>123456</v>
       </c>
       <c r="V5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5">
-        <v>720123</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB5">
         <v>8280004</v>
@@ -2145,39 +1962,42 @@
         <v>852</v>
       </c>
       <c r="AE5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AF5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ5" s="19" t="s">
+      <c r="AJ5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <v>60838324</v>
+        <v>6161616161</v>
       </c>
       <c r="F6">
         <v>98765</v>
@@ -2189,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2204,43 +2024,46 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U6">
         <v>123456</v>
       </c>
       <c r="V6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="Y6">
+        <v>720123</v>
       </c>
       <c r="Z6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB6">
         <v>8280004</v>
@@ -2252,508 +2075,74 @@
         <v>852</v>
       </c>
       <c r="AE6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AF6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>104</v>
+      <c r="AJ6" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <v>6161616161</v>
-      </c>
-      <c r="F7">
-        <v>98765</v>
-      </c>
-      <c r="G7">
-        <v>4455667788</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7">
-        <v>1994</v>
-      </c>
-      <c r="L7">
-        <v>2006</v>
-      </c>
-      <c r="M7">
-        <v>2003</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7">
-        <v>11</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7">
-        <v>123456</v>
-      </c>
-      <c r="V7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y7">
-        <v>720123</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7">
-        <v>8280004</v>
-      </c>
-      <c r="AC7">
-        <v>4786532</v>
-      </c>
-      <c r="AD7">
-        <v>852</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="Y7" s="10"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8">
-        <v>9876543212</v>
-      </c>
-      <c r="F8">
-        <v>82323</v>
-      </c>
-      <c r="G8">
-        <v>4455667788</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8">
-        <v>1994</v>
-      </c>
-      <c r="L8">
-        <v>2006</v>
-      </c>
-      <c r="M8">
-        <v>2003</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8">
-        <v>11</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8">
-        <v>123456</v>
-      </c>
-      <c r="V8" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8">
-        <v>8280004</v>
-      </c>
-      <c r="AC8">
-        <v>4786532</v>
-      </c>
-      <c r="AD8">
-        <v>852</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9">
-        <v>9876543212</v>
-      </c>
-      <c r="F9" s="18">
-        <v>88834</v>
-      </c>
-      <c r="G9">
-        <v>4455667788</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9">
-        <v>1994</v>
-      </c>
-      <c r="L9">
-        <v>2006</v>
-      </c>
-      <c r="M9">
-        <v>2003</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9">
-        <v>11</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9">
-        <v>123456</v>
-      </c>
-      <c r="V9" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y9">
-        <v>720123</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB9">
-        <v>8280004</v>
-      </c>
-      <c r="AC9">
-        <v>4786532</v>
-      </c>
-      <c r="AD9">
-        <v>852</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>6161616161</v>
-      </c>
-      <c r="F10">
-        <v>98765</v>
-      </c>
-      <c r="G10">
-        <v>4455667788</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10">
-        <v>1994</v>
-      </c>
-      <c r="L10">
-        <v>2006</v>
-      </c>
-      <c r="M10">
-        <v>2003</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10">
-        <v>11</v>
-      </c>
-      <c r="S10" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10">
-        <v>123456</v>
-      </c>
-      <c r="V10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10">
-        <v>8280004</v>
-      </c>
-      <c r="AC10">
-        <v>4786532</v>
-      </c>
-      <c r="AD10">
-        <v>852</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="3"/>
-      <c r="Y11" s="10"/>
-      <c r="AA11" s="9"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="3"/>
-      <c r="AA12" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="AA8" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AI2" r:id="rId1" xr:uid="{8611917F-E5E5-4B64-8823-8B0D86368674}"/>
-    <hyperlink ref="AI3:AI10" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
-    <hyperlink ref="AJ3:AJ10" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
+    <hyperlink ref="AI3:AI6" r:id="rId2" display="a@a.com" xr:uid="{2121E3B4-47CC-415A-8F5F-D1F4C19CD929}"/>
+    <hyperlink ref="AJ3:AJ6" r:id="rId3" display="a@a.com" xr:uid="{66F15A09-FA0A-4385-8239-C7FE1B870288}"/>
     <hyperlink ref="AJ2" r:id="rId4" xr:uid="{A10CFF93-CD4C-4FB5-B74D-1107F393E76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,16 +2151,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
@@ -2780,13 +2169,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2794,65 +2183,54 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/YSLTestData.xlsx
+++ b/src/test/resources/Data/YSLTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A45276-B329-4CC4-9B67-5211FE3A321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDF9940-B281-4476-B8A4-541DFAC6F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="custom_data" sheetId="5" r:id="rId4"/>
     <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
     <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
+    <sheet name="member_data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="134">
   <si>
     <t>segment</t>
   </si>
@@ -146,7 +147,7 @@
     <t>Loreal@1234</t>
   </si>
   <si>
-    <t>PY99207495</t>
+    <t>PY99208665</t>
   </si>
   <si>
     <t>P51GEN000</t>
@@ -387,13 +388,61 @@
   </si>
   <si>
     <t>LIBRE EDP S30ML FG</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mars ID</t>
+  </si>
+  <si>
+    <t>Lucid</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>emptydatatest@gmail.com</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>45WM6000403</t>
+  </si>
+  <si>
+    <t>C70000000055363</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>NZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,13 +532,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -505,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,6 +604,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,7 +924,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -933,7 +996,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1081,7 +1144,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,11 +1220,11 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -1398,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2236,4 +2299,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F681F5FC-C8D8-4B87-8B8B-0602354044F9}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7C9557FA-04B0-4457-8B64-542DA37ADE09}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{642FBD86-9CE5-4449-B15D-D084710CD66A}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{3055FEF6-E693-4335-945D-63FC570986E2}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{ECFF044B-C672-4F97-BE91-B89ED6ED2D9D}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{53F5704A-4E97-4B13-938F-D408CCF5D440}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{C7411085-BD24-4943-9D09-6E8F0FAF9A79}"/>
+    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{2A38B275-1811-4DB5-8881-7593AA5D6B9F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Data/YSLTestData.xlsx
+++ b/src/test/resources/Data/YSLTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26412"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDF9940-B281-4476-B8A4-541DFAC6F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0752D4E9-7FB3-43E2-9E94-AF3D2E1B809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
     <sheet name="store_credentials" sheetId="2" r:id="rId2"/>
     <sheet name="ba_credentials" sheetId="3" r:id="rId3"/>
-    <sheet name="custom_data" sheetId="5" r:id="rId4"/>
-    <sheet name="customer_testdata" sheetId="4" r:id="rId5"/>
-    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId6"/>
-    <sheet name="member_data" sheetId="7" r:id="rId7"/>
+    <sheet name="customer_testdata" sheetId="4" r:id="rId4"/>
+    <sheet name="cms_configuration" sheetId="8" r:id="rId5"/>
+    <sheet name="data_configuration" sheetId="9" r:id="rId6"/>
+    <sheet name="plp_pdp_testdata" sheetId="6" r:id="rId7"/>
+    <sheet name="member_data" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="164">
   <si>
     <t>segment</t>
   </si>
@@ -126,10 +127,10 @@
     <t>879@Lo1432yu</t>
   </si>
   <si>
-    <t>IBTQJPYSL</t>
-  </si>
-  <si>
-    <t>iM2OZ*ScBY</t>
+    <t>G90BA</t>
+  </si>
+  <si>
+    <t>Tokyo2023!</t>
   </si>
   <si>
     <t>P51000179</t>
@@ -156,147 +157,147 @@
     <t>Space@123</t>
   </si>
   <si>
-    <t>P51053160</t>
-  </si>
-  <si>
-    <t>TH_national_id</t>
+    <t>P51052393</t>
+  </si>
+  <si>
+    <t>Loreal@0987</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>mobile_number_rand</t>
+  </si>
+  <si>
+    <t>landline_number</t>
+  </si>
+  <si>
+    <t>dob_date</t>
+  </si>
+  <si>
+    <t>dob_month</t>
+  </si>
+  <si>
+    <t>dob_month_short</t>
+  </si>
+  <si>
+    <t>dob_year_1994</t>
+  </si>
+  <si>
+    <t>dob_year_2006</t>
+  </si>
+  <si>
+    <t>dob_year_2003</t>
+  </si>
+  <si>
+    <t>gender_male</t>
+  </si>
+  <si>
+    <t>gender_female</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>add_street_number</t>
+  </si>
+  <si>
+    <t>add_street_name</t>
+  </si>
+  <si>
+    <t>add_city_name</t>
+  </si>
+  <si>
+    <t>add_pincode</t>
+  </si>
+  <si>
+    <t>add_state_name</t>
+  </si>
+  <si>
+    <t>sample_text</t>
+  </si>
+  <si>
+    <t>sample_text_1</t>
+  </si>
+  <si>
+    <t>jp_mobile_number</t>
+  </si>
+  <si>
+    <t>katakana_first_name</t>
+  </si>
+  <si>
+    <t>katakana_last_name</t>
+  </si>
+  <si>
+    <t>jp_zipcode</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>customer_title</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>email_address2</t>
+  </si>
+  <si>
+    <t>email_address3</t>
+  </si>
+  <si>
+    <t>mars_id</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>TestMid</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mraghuram19@gmail.com</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>mobile_number_rand</t>
-  </si>
-  <si>
-    <t>landline_number</t>
-  </si>
-  <si>
-    <t>dob_date</t>
-  </si>
-  <si>
-    <t>dob_month</t>
-  </si>
-  <si>
-    <t>dob_month_short</t>
-  </si>
-  <si>
-    <t>dob_year_1994</t>
-  </si>
-  <si>
-    <t>dob_year_2006</t>
-  </si>
-  <si>
-    <t>dob_year_2003</t>
-  </si>
-  <si>
-    <t>gender_male</t>
-  </si>
-  <si>
-    <t>gender_female</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>test_name</t>
-  </si>
-  <si>
-    <t>add_street_number</t>
-  </si>
-  <si>
-    <t>add_street_name</t>
-  </si>
-  <si>
-    <t>add_city_name</t>
-  </si>
-  <si>
-    <t>add_pincode</t>
-  </si>
-  <si>
-    <t>add_state_name</t>
-  </si>
-  <si>
-    <t>sample_text</t>
-  </si>
-  <si>
-    <t>sample_text_1</t>
-  </si>
-  <si>
-    <t>jp_mobile_number</t>
-  </si>
-  <si>
-    <t>katakana_first_name</t>
-  </si>
-  <si>
-    <t>katakana_last_name</t>
-  </si>
-  <si>
-    <t>jp_zipcode</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>area_code</t>
-  </si>
-  <si>
-    <t>customer_title</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>email_address2</t>
-  </si>
-  <si>
-    <t>email_address3</t>
-  </si>
-  <si>
-    <t>mars_id</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>TestMid</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>mraghuram19@gmail.com</t>
-  </si>
-  <si>
     <t>testStreet</t>
   </si>
   <si>
@@ -354,6 +355,90 @@
     <t>FE248</t>
   </si>
   <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>service_booking</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>consultation_multi_page</t>
+  </si>
+  <si>
+    <t>product_reservation</t>
+  </si>
+  <si>
+    <t>welcome_popup</t>
+  </si>
+  <si>
+    <t>consultation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>search_0</t>
+  </si>
+  <si>
+    <t>search_1</t>
+  </si>
+  <si>
+    <t>search_2</t>
+  </si>
+  <si>
+    <t>search_3</t>
+  </si>
+  <si>
+    <t>search_4</t>
+  </si>
+  <si>
+    <t>Mars ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
     <t>product1</t>
   </si>
   <si>
@@ -390,25 +475,34 @@
     <t>LIBRE EDP S30ML FG</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Mars ID</t>
-  </si>
-  <si>
     <t>Lucid</t>
   </si>
   <si>
-    <t>Client Name</t>
+    <t>Name_dashboard</t>
+  </si>
+  <si>
+    <t>Email_dashboard</t>
+  </si>
+  <si>
+    <t>Mobile Number_dashboard</t>
+  </si>
+  <si>
+    <t>First Name_dashboard</t>
+  </si>
+  <si>
+    <t>Last Name_dashboard</t>
+  </si>
+  <si>
+    <t>Mars ID_dashboard</t>
+  </si>
+  <si>
+    <t>Lucid_dashboard</t>
+  </si>
+  <si>
+    <t>Client Name_dashboard</t>
   </si>
   <si>
     <t>emptydatatest@gmail.com</t>
@@ -423,26 +517,23 @@
     <t>45WM6000403</t>
   </si>
   <si>
-    <t>C70000000055363</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>NZ</t>
+    <t>51B90005394</t>
+  </si>
+  <si>
+    <t>C70000000055715</t>
+  </si>
+  <si>
+    <t>45CA0022781</t>
+  </si>
+  <si>
+    <t>45j50007894</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,11 +606,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -539,7 +625,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,9 +656,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,23 +681,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,7 +1077,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,7 +1114,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1099,7 +1180,7 @@
       <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1117,10 +1198,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1144,7 +1225,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,7 +1261,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1240,7 +1321,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1260,11 +1341,11 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
+      <c r="C6" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -1282,182 +1363,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E2D506-4548-4DC9-A70E-4B10405D5BF5}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="15">
-        <v>8548565948260</v>
-      </c>
-      <c r="B2" s="17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="15">
-        <v>9450469853557</v>
-      </c>
-      <c r="B3" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="15">
-        <v>3948669967118</v>
-      </c>
-      <c r="B4" s="17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="15">
-        <v>1059720392655</v>
-      </c>
-      <c r="B5" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="15">
-        <v>6760625788811</v>
-      </c>
-      <c r="B6" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="15">
-        <v>9133812723983</v>
-      </c>
-      <c r="B7" s="17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="15">
-        <v>2416335689653</v>
-      </c>
-      <c r="B8" s="17">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="15">
-        <v>5528237059081</v>
-      </c>
-      <c r="B9" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="15">
-        <v>8310005688801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="15">
-        <v>2522400209610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="15">
-        <v>8080396582252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="15">
-        <v>3112996418968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="15">
-        <v>7112759843145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="15">
-        <v>4515849177246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="15">
-        <v>7101053760872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="15">
-        <v>4365374204670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="15">
-        <v>4389196704772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="15">
-        <v>6301024076195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
-      <c r="A20" s="15">
-        <v>2055217028820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="15">
-        <v>8088310123596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="15">
-        <v>8531189940672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
-      <c r="A23" s="15">
-        <v>8585943805517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="15">
-        <v>3317827396986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="15">
-        <v>2871694312134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="15">
-        <v>3740887733270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D55CBA2-5253-4CF8-9709-8064EBA01692}">
   <dimension ref="A1:AK8"/>
   <sheetViews>
@@ -1501,112 +1406,112 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -1614,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
       <c r="E2">
         <v>6161616161</v>
@@ -1635,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
       </c>
       <c r="K2">
         <v>1994</v>
@@ -1650,16 +1555,16 @@
         <v>2003</v>
       </c>
       <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
         <v>84</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>86</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
       </c>
       <c r="R2">
         <v>11</v>
@@ -1709,10 +1614,10 @@
       <c r="AH2" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1721,13 +1626,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
       </c>
       <c r="E3">
         <v>9876543212</v>
@@ -1742,10 +1647,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
         <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
       </c>
       <c r="K3">
         <v>1994</v>
@@ -1757,16 +1662,16 @@
         <v>2003</v>
       </c>
       <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>85</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>86</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
       </c>
       <c r="R3">
         <v>11</v>
@@ -1819,10 +1724,10 @@
       <c r="AH3" t="s">
         <v>100</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>99</v>
       </c>
       <c r="AK3" t="s">
@@ -1834,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
       </c>
       <c r="E4">
         <v>9876543212</v>
@@ -1855,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
       </c>
       <c r="K4">
         <v>1994</v>
@@ -1870,16 +1775,16 @@
         <v>2003</v>
       </c>
       <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
         <v>84</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>85</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>86</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
       </c>
       <c r="R4">
         <v>11</v>
@@ -1929,10 +1834,10 @@
       <c r="AH4" t="s">
         <v>102</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AJ4" s="18" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1941,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
       </c>
       <c r="E5">
         <v>60838324</v>
@@ -1962,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
         <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
       </c>
       <c r="K5">
         <v>1994</v>
@@ -1977,16 +1882,16 @@
         <v>2003</v>
       </c>
       <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
         <v>84</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
       </c>
       <c r="R5">
         <v>11</v>
@@ -2036,10 +1941,10 @@
       <c r="AH5" t="s">
         <v>103</v>
       </c>
-      <c r="AI5" s="18" t="s">
+      <c r="AI5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AJ5" s="18" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>99</v>
       </c>
       <c r="AK5" t="s">
@@ -2051,13 +1956,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
       <c r="E6">
         <v>6161616161</v>
@@ -2072,10 +1977,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
         <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
       </c>
       <c r="K6">
         <v>1994</v>
@@ -2087,16 +1992,16 @@
         <v>2003</v>
       </c>
       <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>86</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
       </c>
       <c r="R6">
         <v>11</v>
@@ -2149,10 +2054,10 @@
       <c r="AH6" t="s">
         <v>105</v>
       </c>
-      <c r="AI6" s="18" t="s">
+      <c r="AI6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AJ6" s="18" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2212,7 +2117,473 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF790C4-001D-4BD4-9263-EB371F457139}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2739E11B-3047-4133-9C6F-4343C66A4223}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB1980-169D-4B13-809F-8DE15225146F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2235,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2246,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2257,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2268,10 +2639,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2279,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2290,10 +2661,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2301,235 +2672,448 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F681F5FC-C8D8-4B87-8B8B-0602354044F9}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>125</v>
+      <c r="B2" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>125</v>
+      <c r="B3" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>125</v>
+      <c r="B4" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75">
       <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>125</v>
+      <c r="B6" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>125</v>
+      <c r="B7" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75">
       <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75">
       <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{7C9557FA-04B0-4457-8B64-542DA37ADE09}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{642FBD86-9CE5-4449-B15D-D084710CD66A}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{3055FEF6-E693-4335-945D-63FC570986E2}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{ECFF044B-C672-4F97-BE91-B89ED6ED2D9D}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{53F5704A-4E97-4B13-938F-D408CCF5D440}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{C7411085-BD24-4943-9D09-6E8F0FAF9A79}"/>
-    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{2A38B275-1811-4DB5-8881-7593AA5D6B9F}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{13569AD1-C1FE-40A4-80D5-227207B9CE9D}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{1FAEA80B-A70B-41B9-BC25-3DFA71199765}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{0CCDA692-9469-4AB4-A7FE-34431EF1B6B0}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{AEC9B2BB-4C7B-4C49-AE55-8BFF2DCFB59A}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{8E85E70D-F603-4650-9D48-E7496DF0438A}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{2D47CB0A-A371-4BCB-8856-ADD610ACBE83}"/>
+    <hyperlink ref="B2:B4" r:id="rId7" xr:uid="{437C43ED-6C40-4807-8D81-6396AC708C64}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{CCBBB931-160A-4BD3-BA7C-63B7A205CF46}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{2A6755F6-5338-440C-BA8C-E7BD4355FF09}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{A647833D-155E-462A-8735-EC47CB8B3AB7}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{37C53543-2E00-488C-A30A-41EB4B80DB44}"/>
+    <hyperlink ref="K7" r:id="rId12" xr:uid="{79705454-45B6-4082-B362-21BAE50D548D}"/>
+    <hyperlink ref="K9" r:id="rId13" xr:uid="{CC8CBD24-23E7-435A-AA3A-3542E3BCB8D7}"/>
+    <hyperlink ref="K2:K4" r:id="rId14" xr:uid="{169ABE4D-272F-46EE-8B66-864191930313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
